--- a/5_CustomFunctions/OwnerClassification/noteRules.xlsx
+++ b/5_CustomFunctions/OwnerClassification/noteRules.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\5_CustomFunctions\OwnerClassification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F33BCFBB-B65E-411C-888D-099BB94D3E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E373EE36-7D1D-44BA-8A3D-DA159A716643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" xr2:uid="{D0A7FAD7-EA64-4A45-AAB3-4BA373D330B8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="old" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="111">
   <si>
     <t>Generic</t>
   </si>
@@ -275,6 +276,99 @@
   </si>
   <si>
     <t>usnplist = ["national park", "natl park serv", "national forest", "nat forest", "natl forest"]</t>
+  </si>
+  <si>
+    <t># Government List</t>
+  </si>
+  <si>
+    <t># Military List</t>
+  </si>
+  <si>
+    <t># Natural Resources List</t>
+  </si>
+  <si>
+    <t># Generic List</t>
+  </si>
+  <si>
+    <t># Generic</t>
+  </si>
+  <si>
+    <t># Government</t>
+  </si>
+  <si>
+    <t># Military</t>
+  </si>
+  <si>
+    <t># Natural Resources</t>
+  </si>
+  <si>
+    <t>unList = ["unspecified", "unknown"]</t>
+  </si>
+  <si>
+    <t>nalist = ["tribe", "tribes", "nation", "nations", "indians"]</t>
+  </si>
+  <si>
+    <t>usoalist = ["united states of america", "united states america", "usa"]</t>
+  </si>
+  <si>
+    <t>millist = ["us army", "u s army", "usarmy", "usa army", "national guard", "corps of engineer", "corps of engineers", "army corp", "army corps", "army corp of", "usa department of the army", "uscbp", "border patrol", "border protection", "customs service ", "customs office", "department of defense", "dept of defense", "dhs", "homeland security", "marine corps",  "usaf", "usafb", "afb", "air force", "airforce", "aire force", "air national guard"]</t>
+  </si>
+  <si>
+    <t>usdalist = ["u s  dept of agriculture", "u s agriculture", "us agriculture dept", "us department agriculture", "us dept of agriculture", "usa  department of agriculture", "usa  dept of agriculture", "usda"]</t>
+  </si>
+  <si>
+    <t>usdoelist = ["department of energy", "u s department of energy", "u s dept  of energy lanl", "u s  department of energy", "u s  department of energy", "u s department of energy", "united states department of energy", "us department energy", "us department of energy", "us doe", "usa department of energy"]</t>
+  </si>
+  <si>
+    <t>**Unspecified**.</t>
+  </si>
+  <si>
+    <t>**Native American**.</t>
+  </si>
+  <si>
+    <t>**Bureau of Indian Affairs (USBIA)**.</t>
+  </si>
+  <si>
+    <t>**Department of Housing and Urban Development (USHUD)**.</t>
+  </si>
+  <si>
+    <t>**Federal Aviation Administration (USFAA)**.</t>
+  </si>
+  <si>
+    <t>**General Services Administration (USGSA)**.</t>
+  </si>
+  <si>
+    <t>**United States of America**.</t>
+  </si>
+  <si>
+    <t>**Military**.</t>
+  </si>
+  <si>
+    <t>**National Park Service (USNPS)**.</t>
+  </si>
+  <si>
+    <t>**Bureau of Land Management (USBLM)**.</t>
+  </si>
+  <si>
+    <t>**Bureau Reclamation (USBR)**.</t>
+  </si>
+  <si>
+    <t>**Department of Agriculture (USDA)**.</t>
+  </si>
+  <si>
+    <t>**Department of Energy (USDOE)**.</t>
+  </si>
+  <si>
+    <t>**Environmental Protection Agency (USEPA)**.</t>
+  </si>
+  <si>
+    <t>**Fish and Wildlife Service (USFWS)**.</t>
+  </si>
+  <si>
+    <t>**Forest Service (USFS)**.</t>
+  </si>
+  <si>
+    <t>**Geological Survey (USGS)**.</t>
   </si>
 </sst>
 </file>
@@ -625,14 +719,284 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2E3E4E-0C0E-4298-830F-CEEE42C6ED51}">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="49.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="str">
+        <f>A2&amp;" "&amp;B2</f>
+        <v>**Unspecified**. unList = ["unspecified", "unknown"]</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C24" si="0">A3&amp;" "&amp;B3</f>
+        <v>**Native American**. nalist = ["tribe", "tribes", "nation", "nations", "indians"]</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v># Government List # Government</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>**Bureau of Indian Affairs (USBIA)**. bialist = ["bureau of indian aff", "indian affairs", "usbia"]</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>**Department of Housing and Urban Development (USHUD)**. ushudlist = ["housing and urban development", "housing &amp; urban development", "ushud"]</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>**Federal Aviation Administration (USFAA)**. usfaalist = ["usfaa", "federal aviation administration"]</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>**General Services Administration (USGSA)**. usgsalist = ["usgsa", "general services administration"]</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>**United States of America**. usoalist = ["united states of america", "united states america", "usa"]</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v># Military List # Military</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>**Military**. millist = ["us army", "u s army", "usarmy", "usa army", "national guard", "corps of engineer", "corps of engineers", "army corp", "army corps", "army corp of", "usa department of the army", "uscbp", "border patrol", "border protection", "customs service ", "customs office", "department of defense", "dept of defense", "dhs", "homeland security", "marine corps",  "usaf", "usafb", "afb", "air force", "airforce", "aire force", "air national guard"]</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v># Natural Resources List # Natural Resources</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>**National Park Service (USNPS)**. usblmlist = ["usblm", "blm", "bureau of land mgmt", "bureau of land management", "bureau of land mgmnt", "bureau of land mgt", "bureau of land managment", "bureau of land managenemt"]</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>**Bureau of Land Management (USBLM)**. usbrlist = ["usbr", "bureau of reclam", "bureau of reclamation", "bureau reclamation"]</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>**Bureau Reclamation (USBR)**. usdalist = ["u s  dept of agriculture", "u s agriculture", "us agriculture dept", "us department agriculture", "us dept of agriculture", "usa  department of agriculture", "usa  dept of agriculture", "usda"]</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>**Department of Agriculture (USDA)**. usdoelist = ["department of energy", "u s department of energy", "u s dept  of energy lanl", "u s  department of energy", "u s  department of energy", "u s department of energy", "united states department of energy", "us department energy", "us department of energy", "us doe", "usa department of energy"]</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>**Department of Energy (USDOE)**. epalist = ["environmental protection agency", "epa", "e p a"]</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>**Environmental Protection Agency (USEPA)**. fwlist = ["u s department of the interior fish and wildlife service","u s dept of fish &amp; wildlife","u s dept of the interior fish and wildlife","u s fish &amp; wildlife","u s fish and wildlife","united states fish and wildlife","united states of america fish and wildlife","us department fish &amp; wildlife","us department of fish &amp; wildlife","us dept of interior fish and wildlife","us dept of the interior fish and wildlif","us fish &amp; wild life","us fish &amp; wildlife","us fish and wildlife","us interior dept fish &amp; wildlife","usa department of interior fish and wildlife","usa dept of interior fish &amp; wildlife","usa fish &amp; wildlife","usa fish and wildlife","usdi fish &amp; wildlife","usdi fish and wildlife","usdoi fish &amp; wildlife","usfws"]</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>**Fish and Wildlife Service (USFWS)**. usfslist = ["forest service united states","forest service usda","u s d a forest service","u s forest service","u s forest","united states forest service","us forest service","usa forest service","usda forest service","usfs"]</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>**Forest Service (USFS)**. usgslist = ["u s geological survey","us geological survey","usa geological survey"]</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>**Geological Survey (USGS)**. usnplist = ["national park", "natl park serv", "national forest", "nat forest", "natl forest"]</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1EFBB7B-CCC4-464B-8A3D-589FBB0FFF63}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="48.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">

--- a/5_CustomFunctions/OwnerClassification/noteRules.xlsx
+++ b/5_CustomFunctions/OwnerClassification/noteRules.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\5_CustomFunctions\OwnerClassification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E373EE36-7D1D-44BA-8A3D-DA159A716643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE469F55-8569-4316-9EF8-8337F492B569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" xr2:uid="{D0A7FAD7-EA64-4A45-AAB3-4BA373D330B8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="111">
   <si>
     <t>Generic</t>
   </si>
@@ -302,9 +302,6 @@
     <t># Natural Resources</t>
   </si>
   <si>
-    <t>unList = ["unspecified", "unknown"]</t>
-  </si>
-  <si>
     <t>nalist = ["tribe", "tribes", "nation", "nations", "indians"]</t>
   </si>
   <si>
@@ -369,6 +366,9 @@
   </si>
   <si>
     <t>**Geological Survey (USGS)**.</t>
+  </si>
+  <si>
+    <t>unList = ["unspecified", "wade unspecified", "unknown"]</t>
   </si>
 </sst>
 </file>
@@ -723,12 +723,13 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="49.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -738,28 +739,31 @@
       <c r="B1" t="s">
         <v>84</v>
       </c>
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="C2" t="str">
         <f>A2&amp;" "&amp;B2</f>
-        <v>**Unspecified**. unList = ["unspecified", "unknown"]</v>
+        <v>**Unspecified**. unList = ["unspecified", "wade unspecified", "unknown"]</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C24" si="0">A3&amp;" "&amp;B3</f>
+        <f>A3&amp;" "&amp;B3</f>
         <v>**Native American**. nalist = ["tribe", "tribes", "nation", "nations", "indians"]</v>
       </c>
     </row>
@@ -770,26 +774,25 @@
       <c r="B5" t="s">
         <v>85</v>
       </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v># Government List # Government</v>
+      <c r="C5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C3:C24" si="0">A6&amp;" "&amp;B6</f>
         <v>**Bureau of Indian Affairs (USBIA)**. bialist = ["bureau of indian aff", "indian affairs", "usbia"]</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -801,7 +804,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -813,7 +816,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
@@ -825,10 +828,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -842,17 +845,16 @@
       <c r="B12" t="s">
         <v>86</v>
       </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v># Military List # Military</v>
+      <c r="C12" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -880,7 +882,7 @@
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
-        <v>**National Park Service (USNPS)**. usblmlist = ["usblm", "blm", "bureau of land mgmt", "bureau of land management", "bureau of land mgmnt", "bureau of land mgt", "bureau of land managment", "bureau of land managenemt"]</v>
+        <v>**Bureau of Land Management (USBLM)**. usblmlist = ["usblm", "blm", "bureau of land mgmt", "bureau of land management", "bureau of land mgmnt", "bureau of land mgt", "bureau of land managment", "bureau of land managenemt"]</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -892,7 +894,7 @@
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
-        <v>**Bureau of Land Management (USBLM)**. usbrlist = ["usbr", "bureau of reclam", "bureau of reclamation", "bureau reclamation"]</v>
+        <v>**Bureau Reclamation (USBR)**. usbrlist = ["usbr", "bureau of reclam", "bureau of reclamation", "bureau reclamation"]</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -900,11 +902,11 @@
         <v>104</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
-        <v>**Bureau Reclamation (USBR)**. usdalist = ["u s  dept of agriculture", "u s agriculture", "us agriculture dept", "us department agriculture", "us dept of agriculture", "usa  department of agriculture", "usa  dept of agriculture", "usda"]</v>
+        <v>**Department of Agriculture (USDA)**. usdalist = ["u s  dept of agriculture", "u s agriculture", "us agriculture dept", "us department agriculture", "us dept of agriculture", "usa  department of agriculture", "usa  dept of agriculture", "usda"]</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -912,11 +914,11 @@
         <v>105</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
-        <v>**Department of Agriculture (USDA)**. usdoelist = ["department of energy", "u s department of energy", "u s dept  of energy lanl", "u s  department of energy", "u s  department of energy", "u s department of energy", "united states department of energy", "us department energy", "us department of energy", "us doe", "usa department of energy"]</v>
+        <v>**Department of Energy (USDOE)**. usdoelist = ["department of energy", "u s department of energy", "u s dept  of energy lanl", "u s  department of energy", "u s  department of energy", "u s department of energy", "united states department of energy", "us department energy", "us department of energy", "us doe", "usa department of energy"]</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -928,7 +930,7 @@
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
-        <v>**Department of Energy (USDOE)**. epalist = ["environmental protection agency", "epa", "e p a"]</v>
+        <v>**Environmental Protection Agency (USEPA)**. epalist = ["environmental protection agency", "epa", "e p a"]</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -940,7 +942,7 @@
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
-        <v>**Environmental Protection Agency (USEPA)**. fwlist = ["u s department of the interior fish and wildlife service","u s dept of fish &amp; wildlife","u s dept of the interior fish and wildlife","u s fish &amp; wildlife","u s fish and wildlife","united states fish and wildlife","united states of america fish and wildlife","us department fish &amp; wildlife","us department of fish &amp; wildlife","us dept of interior fish and wildlife","us dept of the interior fish and wildlif","us fish &amp; wild life","us fish &amp; wildlife","us fish and wildlife","us interior dept fish &amp; wildlife","usa department of interior fish and wildlife","usa dept of interior fish &amp; wildlife","usa fish &amp; wildlife","usa fish and wildlife","usdi fish &amp; wildlife","usdi fish and wildlife","usdoi fish &amp; wildlife","usfws"]</v>
+        <v>**Fish and Wildlife Service (USFWS)**. fwlist = ["u s department of the interior fish and wildlife service","u s dept of fish &amp; wildlife","u s dept of the interior fish and wildlife","u s fish &amp; wildlife","u s fish and wildlife","united states fish and wildlife","united states of america fish and wildlife","us department fish &amp; wildlife","us department of fish &amp; wildlife","us dept of interior fish and wildlife","us dept of the interior fish and wildlif","us fish &amp; wild life","us fish &amp; wildlife","us fish and wildlife","us interior dept fish &amp; wildlife","usa department of interior fish and wildlife","usa dept of interior fish &amp; wildlife","usa fish &amp; wildlife","usa fish and wildlife","usdi fish &amp; wildlife","usdi fish and wildlife","usdoi fish &amp; wildlife","usfws"]</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -952,7 +954,7 @@
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
-        <v>**Fish and Wildlife Service (USFWS)**. usfslist = ["forest service united states","forest service usda","u s d a forest service","u s forest service","u s forest","united states forest service","us forest service","usa forest service","usda forest service","usfs"]</v>
+        <v>**Forest Service (USFS)**. usfslist = ["forest service united states","forest service usda","u s d a forest service","u s forest service","u s forest","united states forest service","us forest service","usa forest service","usda forest service","usfs"]</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -964,19 +966,19 @@
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
-        <v>**Forest Service (USFS)**. usgslist = ["u s geological survey","us geological survey","usa geological survey"]</v>
+        <v>**Geological Survey (USGS)**. usgslist = ["u s geological survey","us geological survey","usa geological survey"]</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B24" t="s">
         <v>79</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
-        <v>**Geological Survey (USGS)**. usnplist = ["national park", "natl park serv", "national forest", "nat forest", "natl forest"]</v>
+        <v>**National Park Service (USNPS)**. usnplist = ["national park", "natl park serv", "national forest", "nat forest", "natl forest"]</v>
       </c>
     </row>
   </sheetData>

--- a/5_CustomFunctions/OwnerClassification/noteRules.xlsx
+++ b/5_CustomFunctions/OwnerClassification/noteRules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\5_CustomFunctions\OwnerClassification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE469F55-8569-4316-9EF8-8337F492B569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A836EBA1-96B9-46C5-AC56-3A07D0FDE530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" xr2:uid="{D0A7FAD7-EA64-4A45-AAB3-4BA373D330B8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{D0A7FAD7-EA64-4A45-AAB3-4BA373D330B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="119">
   <si>
     <t>Generic</t>
   </si>
@@ -369,6 +369,30 @@
   </si>
   <si>
     <t>unList = ["unspecified", "wade unspecified", "unknown"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usa Dept Of Agriculture </t>
+  </si>
+  <si>
+    <t>Forest Service</t>
+  </si>
+  <si>
+    <t>usfslist = ["forest service united states","forest service usda","u s d a forest service","u s forest service","u s forest","united states forest service","us forest service","usa forest service","usda forest service","forest service","usfs"]</t>
+  </si>
+  <si>
+    <t>fwlist = ["u s department of the interior fish and wildlife service","u s dept of fish &amp; wildlife","u s dept of the interior fish and wildlife","u s fish &amp; wildlife","u s fish and wildlife","united states fish and wildlife","united states of america fish and wildlife","us department fish &amp; wildlife","us department of fish &amp; wildlife","us dept of interior fish and wildlife","us dept of the interior fish and wildlif","us fish &amp; wild life","us fish &amp; wildlife","us fish and wildlife","us interior dept fish &amp; wildlife","usa department of interior fish and wildlife","usa dept of interior fish &amp; wildlife","usa fish &amp; wildlife","usa fish and wildlife","usdi fish &amp; wildlife","usdi fish and wildlife","usdoi fish &amp; wildlife","fish and wildlife","usfws"]</t>
+  </si>
+  <si>
+    <t>**Private**</t>
+  </si>
+  <si>
+    <t>bialist = ["bureau of indian aff", "bureau of indian", "indian affairs", "usbia"]</t>
+  </si>
+  <si>
+    <t># Non-Federal List</t>
+  </si>
+  <si>
+    <t>priList = ["corporation”, "company”, "commission", "co”, "inc”, "llc”, "limited”, "ltd”, "llp"]</t>
   </si>
 </sst>
 </file>
@@ -720,16 +744,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2E3E4E-0C0E-4298-830F-CEEE42C6ED51}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="49.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.6640625" customWidth="1"/>
+    <col min="2" max="2" width="130.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -783,11 +807,11 @@
         <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" ref="C3:C24" si="0">A6&amp;" "&amp;B6</f>
-        <v>**Bureau of Indian Affairs (USBIA)**. bialist = ["bureau of indian aff", "indian affairs", "usbia"]</v>
+        <f t="shared" ref="C6:C24" si="0">A6&amp;" "&amp;B6</f>
+        <v>**Bureau of Indian Affairs (USBIA)**. bialist = ["bureau of indian aff", "bureau of indian", "indian affairs", "usbia"]</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -938,11 +962,11 @@
         <v>107</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
-        <v>**Fish and Wildlife Service (USFWS)**. fwlist = ["u s department of the interior fish and wildlife service","u s dept of fish &amp; wildlife","u s dept of the interior fish and wildlife","u s fish &amp; wildlife","u s fish and wildlife","united states fish and wildlife","united states of america fish and wildlife","us department fish &amp; wildlife","us department of fish &amp; wildlife","us dept of interior fish and wildlife","us dept of the interior fish and wildlif","us fish &amp; wild life","us fish &amp; wildlife","us fish and wildlife","us interior dept fish &amp; wildlife","usa department of interior fish and wildlife","usa dept of interior fish &amp; wildlife","usa fish &amp; wildlife","usa fish and wildlife","usdi fish &amp; wildlife","usdi fish and wildlife","usdoi fish &amp; wildlife","usfws"]</v>
+        <v>**Fish and Wildlife Service (USFWS)**. fwlist = ["u s department of the interior fish and wildlife service","u s dept of fish &amp; wildlife","u s dept of the interior fish and wildlife","u s fish &amp; wildlife","u s fish and wildlife","united states fish and wildlife","united states of america fish and wildlife","us department fish &amp; wildlife","us department of fish &amp; wildlife","us dept of interior fish and wildlife","us dept of the interior fish and wildlif","us fish &amp; wild life","us fish &amp; wildlife","us fish and wildlife","us interior dept fish &amp; wildlife","usa department of interior fish and wildlife","usa dept of interior fish &amp; wildlife","usa fish &amp; wildlife","usa fish and wildlife","usdi fish &amp; wildlife","usdi fish and wildlife","usdoi fish &amp; wildlife","fish and wildlife","usfws"]</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -950,11 +974,11 @@
         <v>108</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
-        <v>**Forest Service (USFS)**. usfslist = ["forest service united states","forest service usda","u s d a forest service","u s forest service","u s forest","united states forest service","us forest service","usa forest service","usda forest service","usfs"]</v>
+        <v>**Forest Service (USFS)**. usfslist = ["forest service united states","forest service usda","u s d a forest service","u s forest service","u s forest","united states forest service","us forest service","usa forest service","usda forest service","forest service","usfs"]</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -979,6 +1003,33 @@
       <c r="C24" t="str">
         <f t="shared" si="0"/>
         <v>**National Park Service (USNPS)**. usnplist = ["national park", "natl park serv", "national forest", "nat forest", "natl forest"]</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" t="str">
+        <f>A27&amp;" "&amp;B27</f>
+        <v>**Private** priList = ["corporation”, "company”, "commission", "co”, "inc”, "llc”, "limited”, "ltd”, "llp"]</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/5_CustomFunctions/OwnerClassification/noteRules.xlsx
+++ b/5_CustomFunctions/OwnerClassification/noteRules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\5_CustomFunctions\OwnerClassification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A836EBA1-96B9-46C5-AC56-3A07D0FDE530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF68BD5E-AECF-46BC-A492-DBC7380E816A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{D0A7FAD7-EA64-4A45-AAB3-4BA373D330B8}"/>
   </bookViews>
@@ -380,9 +380,6 @@
     <t>usfslist = ["forest service united states","forest service usda","u s d a forest service","u s forest service","u s forest","united states forest service","us forest service","usa forest service","usda forest service","forest service","usfs"]</t>
   </si>
   <si>
-    <t>fwlist = ["u s department of the interior fish and wildlife service","u s dept of fish &amp; wildlife","u s dept of the interior fish and wildlife","u s fish &amp; wildlife","u s fish and wildlife","united states fish and wildlife","united states of america fish and wildlife","us department fish &amp; wildlife","us department of fish &amp; wildlife","us dept of interior fish and wildlife","us dept of the interior fish and wildlif","us fish &amp; wild life","us fish &amp; wildlife","us fish and wildlife","us interior dept fish &amp; wildlife","usa department of interior fish and wildlife","usa dept of interior fish &amp; wildlife","usa fish &amp; wildlife","usa fish and wildlife","usdi fish &amp; wildlife","usdi fish and wildlife","usdoi fish &amp; wildlife","fish and wildlife","usfws"]</t>
-  </si>
-  <si>
     <t>**Private**</t>
   </si>
   <si>
@@ -392,7 +389,10 @@
     <t># Non-Federal List</t>
   </si>
   <si>
-    <t>priList = ["corporation”, "company”, "commission", "co”, "inc”, "llc”, "limited”, "ltd”, "llp"]</t>
+    <t>fwlist = ["u s department of the interior fish and wildlife service","u s dept of fish &amp; wildlife","u s dept of the interior fish and wildlife","u s fish &amp; wildlife","u s fish and wildlife","united states fish and wildlife","united states of america fish and wildlife","us department fish &amp; wildlife","us department of fish &amp; wildlife","us dept of interior fish and wildlife","us dept of the interior fish and wildlif","us fish &amp; wild life","us fish &amp; wildlife","us fish and wildlife","us interior dept fish &amp; wildlife","usa department of interior fish and wildlife","usa dept of interior fish &amp; wildlife","usa fish &amp; wildlife","usa fish and wildlife","usdi fish &amp; wildlife","usdi fish and wildlife","usdoi fish &amp; wildlife","fish and wildlife", "fish wildlife", "fish &amp; wildlife", "usfish and wildlife", "usfws"]</t>
+  </si>
+  <si>
+    <t>priList = ["corporation", "company", "commission", "co", "coop", "inc", "llc", "limited", "ltd", "lp", "farm", "farms"]</t>
   </si>
 </sst>
 </file>
@@ -747,7 +747,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -807,7 +807,7 @@
         <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" ref="C6:C24" si="0">A6&amp;" "&amp;B6</f>
@@ -962,11 +962,11 @@
         <v>107</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
-        <v>**Fish and Wildlife Service (USFWS)**. fwlist = ["u s department of the interior fish and wildlife service","u s dept of fish &amp; wildlife","u s dept of the interior fish and wildlife","u s fish &amp; wildlife","u s fish and wildlife","united states fish and wildlife","united states of america fish and wildlife","us department fish &amp; wildlife","us department of fish &amp; wildlife","us dept of interior fish and wildlife","us dept of the interior fish and wildlif","us fish &amp; wild life","us fish &amp; wildlife","us fish and wildlife","us interior dept fish &amp; wildlife","usa department of interior fish and wildlife","usa dept of interior fish &amp; wildlife","usa fish &amp; wildlife","usa fish and wildlife","usdi fish &amp; wildlife","usdi fish and wildlife","usdoi fish &amp; wildlife","fish and wildlife","usfws"]</v>
+        <v>**Fish and Wildlife Service (USFWS)**. fwlist = ["u s department of the interior fish and wildlife service","u s dept of fish &amp; wildlife","u s dept of the interior fish and wildlife","u s fish &amp; wildlife","u s fish and wildlife","united states fish and wildlife","united states of america fish and wildlife","us department fish &amp; wildlife","us department of fish &amp; wildlife","us dept of interior fish and wildlife","us dept of the interior fish and wildlif","us fish &amp; wild life","us fish &amp; wildlife","us fish and wildlife","us interior dept fish &amp; wildlife","usa department of interior fish and wildlife","usa dept of interior fish &amp; wildlife","usa fish &amp; wildlife","usa fish and wildlife","usdi fish &amp; wildlife","usdi fish and wildlife","usdoi fish &amp; wildlife","fish and wildlife", "fish wildlife", "fish &amp; wildlife", "usfish and wildlife", "usfws"]</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -1007,19 +1007,19 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B27" t="s">
         <v>118</v>
       </c>
       <c r="C27" t="str">
         <f>A27&amp;" "&amp;B27</f>
-        <v>**Private** priList = ["corporation”, "company”, "commission", "co”, "inc”, "llc”, "limited”, "ltd”, "llp"]</v>
+        <v>**Private** priList = ["corporation", "company", "commission", "co", "coop", "inc", "llc", "limited", "ltd", "lp", "farm", "farms"]</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">

--- a/5_CustomFunctions/OwnerClassification/noteRules.xlsx
+++ b/5_CustomFunctions/OwnerClassification/noteRules.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\5_CustomFunctions\OwnerClassification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF68BD5E-AECF-46BC-A492-DBC7380E816A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9493452-12D7-4EF1-883E-3CC753D3DF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{D0A7FAD7-EA64-4A45-AAB3-4BA373D330B8}"/>
   </bookViews>
@@ -368,9 +368,6 @@
     <t>**Geological Survey (USGS)**.</t>
   </si>
   <si>
-    <t>unList = ["unspecified", "wade unspecified", "unknown"]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Usa Dept Of Agriculture </t>
   </si>
   <si>
@@ -392,7 +389,10 @@
     <t>fwlist = ["u s department of the interior fish and wildlife service","u s dept of fish &amp; wildlife","u s dept of the interior fish and wildlife","u s fish &amp; wildlife","u s fish and wildlife","united states fish and wildlife","united states of america fish and wildlife","us department fish &amp; wildlife","us department of fish &amp; wildlife","us dept of interior fish and wildlife","us dept of the interior fish and wildlif","us fish &amp; wild life","us fish &amp; wildlife","us fish and wildlife","us interior dept fish &amp; wildlife","usa department of interior fish and wildlife","usa dept of interior fish &amp; wildlife","usa fish &amp; wildlife","usa fish and wildlife","usdi fish &amp; wildlife","usdi fish and wildlife","usdoi fish &amp; wildlife","fish and wildlife", "fish wildlife", "fish &amp; wildlife", "usfish and wildlife", "usfws"]</t>
   </si>
   <si>
-    <t>priList = ["corporation", "company", "commission", "co", "coop", "inc", "llc", "limited", "ltd", "lp", "farm", "farms"]</t>
+    <t>priList = ["corporation", "company", "commission", "co", "coop", "corp", "inc", "llc", "limited", "ltd", "lp", "farm", "farms"]</t>
+  </si>
+  <si>
+    <t>unList = ["unspecified", "wade blank", "unknown"]</t>
   </si>
 </sst>
 </file>
@@ -747,7 +747,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -772,11 +772,11 @@
         <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C2" t="str">
         <f>A2&amp;" "&amp;B2</f>
-        <v>**Unspecified**. unList = ["unspecified", "wade unspecified", "unknown"]</v>
+        <v>**Unspecified**. unList = ["unspecified", "wade blank", "unknown"]</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -807,7 +807,7 @@
         <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" ref="C6:C24" si="0">A6&amp;" "&amp;B6</f>
@@ -962,7 +962,7 @@
         <v>107</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -974,7 +974,7 @@
         <v>108</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -1007,29 +1007,29 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C27" t="str">
         <f>A27&amp;" "&amp;B27</f>
-        <v>**Private** priList = ["corporation", "company", "commission", "co", "coop", "inc", "llc", "limited", "ltd", "lp", "farm", "farms"]</v>
+        <v>**Private** priList = ["corporation", "company", "commission", "co", "coop", "corp", "inc", "llc", "limited", "ltd", "lp", "farm", "farms"]</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/5_CustomFunctions/OwnerClassification/noteRules.xlsx
+++ b/5_CustomFunctions/OwnerClassification/noteRules.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\5_CustomFunctions\OwnerClassification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9493452-12D7-4EF1-883E-3CC753D3DF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FC1929-474F-4663-A69D-891C996DC9A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{D0A7FAD7-EA64-4A45-AAB3-4BA373D330B8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="120">
   <si>
     <t>Generic</t>
   </si>
@@ -393,6 +393,9 @@
   </si>
   <si>
     <t>unList = ["unspecified", "wade blank", "unknown"]</t>
+  </si>
+  <si>
+    <t>usbrlist = ["usbr", "bureau of reclam", "bureau of reclamation", "bureau reclamation", "usdoi bureau of reclamation", "bor", "usbor"]</t>
   </si>
 </sst>
 </file>
@@ -747,7 +750,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -914,11 +917,11 @@
         <v>103</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
-        <v>**Bureau Reclamation (USBR)**. usbrlist = ["usbr", "bureau of reclam", "bureau of reclamation", "bureau reclamation"]</v>
+        <v>**Bureau Reclamation (USBR)**. usbrlist = ["usbr", "bureau of reclam", "bureau of reclamation", "bureau reclamation", "usdoi bureau of reclamation", "bor", "usbor"]</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
